--- a/tests/__snapshots__/basic.xlsx
+++ b/tests/__snapshots__/basic.xlsx
@@ -372,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:J1"/>
+  <dimension ref="C1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:10">
+    <row r="1" spans="3:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,12 +387,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
